--- a/xlsx/挑战者SE单扇双扇.xlsx
+++ b/xlsx/挑战者SE单扇双扇.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9697E4F-7DCC-8D43-BDA1-D1B91CF24B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B0CEB-3FA0-F446-B16A-F90EB25CB9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
+    <workbookView xWindow="5360" yWindow="12580" windowWidth="28800" windowHeight="17960" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O1048576"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -572,7 +572,7 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>87.4</v>
+        <v>87.6</v>
       </c>
       <c r="L4">
         <v>2242</v>
